--- a/test/test-row-title.xlsx
+++ b/test/test-row-title.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>物种</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,30 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样地1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样地2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +63,30 @@
   </si>
   <si>
     <t>b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,19 +467,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -508,44 +507,35 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -556,34 +546,48 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>10</v>
       </c>
     </row>
@@ -613,18 +617,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
